--- a/Practice/dist/file_.xlsx
+++ b/Practice/dist/file_.xlsx
@@ -9,12 +9,12 @@
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t>Python</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>JS</t>
+  </si>
+  <si>
+    <t>Git</t>
   </si>
   <si>
     <t>C#</t>
@@ -48,12 +51,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -68,8 +77,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -345,15 +355,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -361,20 +371,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
